--- a/zjgj-project/data/字典数据整理.xlsx
+++ b/zjgj-project/data/字典数据整理.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18460" windowHeight="5660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -415,8 +416,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,11 +466,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,9 +552,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,6 +587,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,23 +763,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -822,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -839,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -856,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -873,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -890,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -907,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -924,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -941,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -958,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -975,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -1026,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -1057,10 +1068,10 @@
         <v>74</v>
       </c>
       <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>94</v>
       </c>
@@ -1074,10 +1085,10 @@
         <v>73</v>
       </c>
       <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
@@ -1090,8 +1101,11 @@
       <c r="E19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1104,8 +1118,11 @@
       <c r="E20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
@@ -1118,8 +1135,11 @@
       <c r="E21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>95</v>
       </c>
@@ -1136,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -1153,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>95</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -1187,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>96</v>
       </c>
@@ -1204,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>96</v>
       </c>
@@ -1221,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>96</v>
       </c>
@@ -1238,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>96</v>
       </c>
@@ -1255,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>96</v>
       </c>
@@ -1272,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>96</v>
       </c>
@@ -1289,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -1306,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -1323,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -1340,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>48</v>
       </c>
@@ -1374,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>48</v>
       </c>
@@ -1391,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -1408,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>48</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -1459,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>48</v>
       </c>
@@ -1493,7 +1513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>48</v>
       </c>
@@ -1510,7 +1530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>97</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>97</v>
       </c>
@@ -1544,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>97</v>
       </c>
@@ -1561,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -1578,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>98</v>
       </c>
@@ -1595,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>98</v>
       </c>
@@ -1612,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>98</v>
       </c>
@@ -1629,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -1646,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>69</v>
       </c>
@@ -1663,7 +1683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>69</v>
       </c>
@@ -1680,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>69</v>
       </c>
@@ -1697,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>67</v>
       </c>
@@ -1714,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>67</v>
       </c>
@@ -1731,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>67</v>
       </c>
@@ -1748,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>99</v>
       </c>
@@ -1765,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>99</v>
       </c>
@@ -1782,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>99</v>
       </c>
@@ -1799,7 +1819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>100</v>
       </c>
@@ -1833,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>100</v>
       </c>
@@ -1850,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>100</v>
       </c>
@@ -1867,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>100</v>
       </c>
@@ -1884,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>80</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>80</v>
       </c>
@@ -1918,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>89</v>
       </c>
@@ -1935,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>89</v>
       </c>
@@ -1952,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>84</v>
       </c>
@@ -1969,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>84</v>
       </c>
@@ -1986,7 +2006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>84</v>
       </c>
@@ -2003,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>101</v>
       </c>
@@ -2020,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>101</v>
       </c>
@@ -2045,12 +2065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,12 +2079,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
